--- a/biology/Zoologie/Cranchiidae/Cranchiidae.xlsx
+++ b/biology/Zoologie/Cranchiidae/Cranchiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calmars de verre ou cranchiidés (Cranchiidae) forment une famille de céphalopodes décapodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cranchiidae comprend quelque 60 espèces qui évoluent à la surface et dans les profondeurs de tous les océans. Ils varient en longueur du manteau de 10 centimètres à plus de 10 mètres, dans le cas du calmar colossal. Le nom commun, calmar de verre, découle de la nature transparente de la plupart des espèces. Ces calmars passent une grande partie de leur vie dans les eaux peu profondes partiellement ensoleillé où leur transparence permet le camouflage. Ils sont caractérisés par un corps gonflé et des bras courts, qui portent deux rangées de ventouses ou de crochets. La paire de tentacules est souvent plus longue. De nombreuses espèces sont des organismes bioluminescents : ils possèdent des organes lumineux sur la face inférieure de leurs yeux, utilisés pour annuler leur ombre. La morphologie des yeux est très variable, allant des yeux larges et circulaires aux yeux télescopiques et pétiolés. Un fluide composé d'ammoniac dans une petite poche est utilisé pour faciliter la flottabilité. Souvent, le seul organe qui est visible à travers les tissus transparents est la glande digestive en forme de porte-cigares, qui est l'équivalent chez les céphalopodes d'un foie de mammifères. Celui-ci est habituellement maintenu en position verticale pour réduire sa silhouette et un organe bioluminescent est parfois présent à l'extrémité inférieure afin de réduire encore davantage sa visibilité dans l'eau.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des taxons subordonnés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Bathothauma lyromma
